--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_20_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_20_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60329.12715314009</v>
+        <v>12005496.30347486</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60329.12715314009</v>
+        <v>12005496.30347486</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1035.584390343694</v>
+        <v>64619.49808136922</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1035.584390343694</v>
+        <v>64619.49808136922</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1036231891.214681</v>
+        <v>42953584.23232897</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9097.14388782244</v>
+        <v>1028487.549172616</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17036.16874142422</v>
+        <v>1877461.343552651</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>24975.193595026</v>
+        <v>2726435.137932688</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>32920.75289174541</v>
+        <v>3575616.410299235</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>40864.72835008099</v>
+        <v>4424482.498827399</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>48808.70380841658</v>
+        <v>5273348.587355561</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>56752.67926675215</v>
+        <v>6122214.67588372</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>64696.65472508773</v>
+        <v>6971080.76441188</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>72640.6301834233</v>
+        <v>7819946.85294004</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>80584.60564175884</v>
+        <v>8668812.9414682</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>88528.58110009438</v>
+        <v>9517679.029996365</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>96466.02211531228</v>
+        <v>10366337.64053802</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>104405.046968914</v>
+        <v>11215311.43491806</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>112344.0718225158</v>
+        <v>12064285.22929811</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>120283.0966761175</v>
+        <v>12913259.02367815</v>
       </c>
     </row>
   </sheetData>
